--- a/nirs_water_prediction/result/tmp_plsr.xlsx
+++ b/nirs_water_prediction/result/tmp_plsr.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R186"/>
+  <dimension ref="A1:R189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27393,6 +27393,573 @@
         </is>
       </c>
     </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>SG_DT_NONE_PLSR</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>SG+DT</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>0.9769</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.9317</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>3.8258</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>2.9319</t>
+        </is>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>3.0792</t>
+        </is>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>3.0797</t>
+        </is>
+      </c>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>{'method': ['sg', 'dt']}</t>
+        </is>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>n_comp=30</t>
+        </is>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R187" t="inlineStr">
+        <is>
+          <t>[[0.78279259]
+ [0.69842338]
+ [0.77171632]
+ [0.74771421]
+ [0.69659771]
+ [0.7344295 ]
+ [0.70092695]
+ [0.62185358]
+ [0.76869509]
+ [0.7475982 ]
+ [0.6417928 ]
+ [0.5765341 ]
+ [0.62247245]
+ [0.65316219]
+ [0.64984981]
+ [0.57909118]
+ [0.69871158]
+ [0.62589845]
+ [0.63547467]
+ [0.67205494]
+ [0.49554376]
+ [0.49504514]
+ [0.40759447]
+ [0.32808319]
+ [0.39423872]
+ [0.35321917]
+ [0.35256582]
+ [0.67830449]
+ [0.71311754]
+ [0.66894115]
+ [0.68642638]
+ [0.61257773]
+ [0.62874943]
+ [0.63482372]
+ [0.60969991]
+ [0.56190536]
+ [0.60667876]
+ [0.61929425]
+ [0.56381747]
+ [0.72912144]
+ [0.74068946]
+ [0.69558299]
+ [0.68020537]
+ [0.69504734]
+ [0.7122183 ]
+ [0.60630474]
+ [0.62015733]
+ [0.63073669]
+ [0.6118014 ]
+ [0.53451807]
+ [0.56434808]
+ [0.69528738]
+ [0.68440327]
+ [0.58516574]
+ [0.56700829]
+ [0.61466187]
+ [0.60969899]
+ [0.58839034]
+ [0.54496067]
+ [0.54500119]
+ [0.48861668]
+ [0.48629985]
+ [0.45308585]
+ [0.67568475]
+ [0.74647821]
+ [0.53153692]
+ [0.5398587 ]
+ [0.57635481]
+ [0.63898493]
+ [0.64982912]
+ [0.63053781]
+ [0.46048744]
+ [0.47305212]
+ [0.72960831]
+ [0.70133272]
+ [0.6787117 ]
+ [0.66291125]
+ [0.68885847]
+ [0.66661132]
+ [0.54457447]
+ [0.55891569]
+ [0.09186618]
+ [0.09854607]
+ [0.62563001]
+ [0.73459577]
+ [0.43090607]
+ [0.6148712 ]
+ [0.71165987]
+ [0.60550618]
+ [0.50330281]
+ [0.61857474]
+ [0.46353455]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>SG_LASSO_PLSR</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>0.9655</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.9635</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>5.2337</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>1.9707</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>2.0315</t>
+        </is>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>2.0317</t>
+        </is>
+      </c>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>{'method': ['sg']}</t>
+        </is>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>n_comp=8</t>
+        </is>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>[[0.71545736]
+ [0.70898687]
+ [0.74077287]
+ [0.72008441]
+ [0.69949072]
+ [0.73854821]
+ [0.69229279]
+ [0.69514524]
+ [0.71828706]
+ [0.71775247]
+ [0.67128003]
+ [0.62768502]
+ [0.61091465]
+ [0.60189326]
+ [0.65078522]
+ [0.63781563]
+ [0.65129913]
+ [0.64469616]
+ [0.61861766]
+ [0.66211137]
+ [0.48635311]
+ [0.49359267]
+ [0.42095387]
+ [0.37174963]
+ [0.37633605]
+ [0.31121659]
+ [0.31640141]
+ [0.7130768 ]
+ [0.7124537 ]
+ [0.63770392]
+ [0.65825413]
+ [0.62111706]
+ [0.60131418]
+ [0.64177014]
+ [0.64355614]
+ [0.6147127 ]
+ [0.64711607]
+ [0.61590529]
+ [0.57754952]
+ [0.73428934]
+ [0.72722128]
+ [0.7246355 ]
+ [0.71010161]
+ [0.70591437]
+ [0.72931741]
+ [0.60175595]
+ [0.59345173]
+ [0.62880794]
+ [0.59716931]
+ [0.54086073]
+ [0.55357594]
+ [0.69979692]
+ [0.69897663]
+ [0.59889998]
+ [0.58036678]
+ [0.59772809]
+ [0.59780051]
+ [0.59820588]
+ [0.54492776]
+ [0.55266434]
+ [0.51469309]
+ [0.50931836]
+ [0.49578793]
+ [0.69198045]
+ [0.70600617]
+ [0.54379606]
+ [0.55053953]
+ [0.58328099]
+ [0.56962935]
+ [0.63651691]
+ [0.63009846]
+ [0.49714545]
+ [0.48320998]
+ [0.71550712]
+ [0.71636731]
+ [0.70156642]
+ [0.69392275]
+ [0.64454993]
+ [0.68188344]
+ [0.55582664]
+ [0.57515395]
+ [0.09679976]
+ [0.10599744]
+ [0.61423429]
+ [0.7130312 ]
+ [0.40046609]
+ [0.62431629]
+ [0.72436868]
+ [0.59261627]
+ [0.50844822]
+ [0.64221464]
+ [0.49347521]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>SG_LASSO_PLSR</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>LASSO</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>0.9660</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.9641</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>5.2809</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>1.9790</t>
+        </is>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>2.0333</t>
+        </is>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>2.0326</t>
+        </is>
+      </c>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>{'method': ['sg']}</t>
+        </is>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>[{'alpha': 0.0005, 'normalize': False}]</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>n_comp=11</t>
+        </is>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>[[0.72721184]
+ [0.71614959]
+ [0.75266576]
+ [0.72391554]
+ [0.70188385]
+ [0.73093248]
+ [0.68812234]
+ [0.69074794]
+ [0.72783293]
+ [0.71952688]
+ [0.66740802]
+ [0.62576739]
+ [0.60716775]
+ [0.60393128]
+ [0.6526802 ]
+ [0.6335325 ]
+ [0.65931682]
+ [0.63972494]
+ [0.61601348]
+ [0.6542499 ]
+ [0.47369218]
+ [0.4893124 ]
+ [0.41309739]
+ [0.36684198]
+ [0.37484394]
+ [0.31548577]
+ [0.31769943]
+ [0.7082337 ]
+ [0.71239181]
+ [0.63346153]
+ [0.65072281]
+ [0.62075321]
+ [0.60262732]
+ [0.63618555]
+ [0.64392215]
+ [0.61663066]
+ [0.64195517]
+ [0.61281587]
+ [0.579456  ]
+ [0.73634388]
+ [0.72745691]
+ [0.72223101]
+ [0.70815995]
+ [0.70648097]
+ [0.73420815]
+ [0.60105411]
+ [0.59722253]
+ [0.62100803]
+ [0.59317895]
+ [0.54696739]
+ [0.56255577]
+ [0.69701529]
+ [0.70059078]
+ [0.58926203]
+ [0.57780479]
+ [0.60282081]
+ [0.60021997]
+ [0.60348741]
+ [0.53617512]
+ [0.55483658]
+ [0.51709408]
+ [0.50835917]
+ [0.4944148 ]
+ [0.69296301]
+ [0.70979381]
+ [0.54959373]
+ [0.55298178]
+ [0.58516652]
+ [0.56623828]
+ [0.63512301]
+ [0.6298464 ]
+ [0.49580453]
+ [0.48439417]
+ [0.71894192]
+ [0.71583956]
+ [0.70232787]
+ [0.6907815 ]
+ [0.64637198]
+ [0.68852332]
+ [0.55590553]
+ [0.57427208]
+ [0.09449377]
+ [0.10618872]
+ [0.61365285]
+ [0.71800074]
+ [0.40024276]
+ [0.62368713]
+ [0.72220802]
+ [0.5962827 ]
+ [0.50684454]
+ [0.64047157]
+ [0.49094882]]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/nirs_water_prediction/result/tmp_plsr.xlsx
+++ b/nirs_water_prediction/result/tmp_plsr.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T312"/>
+  <dimension ref="A1:T337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43001,6 +43001,3900 @@
         </is>
       </c>
     </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>DT_NONE_PLSR</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>0.9881</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>0.9748</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>0.9764</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>0.9502</t>
+        </is>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>4.4789</t>
+        </is>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>2.2502</t>
+        </is>
+      </c>
+      <c r="M313" t="inlineStr">
+        <is>
+          <t>4.0514</t>
+        </is>
+      </c>
+      <c r="N313" t="inlineStr">
+        <is>
+          <t>4.1561</t>
+        </is>
+      </c>
+      <c r="O313" t="inlineStr">
+        <is>
+          <t>4.1559</t>
+        </is>
+      </c>
+      <c r="P313" t="inlineStr">
+        <is>
+          <t>{'method': ['dt']}</t>
+        </is>
+      </c>
+      <c r="Q313" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R313" t="inlineStr">
+        <is>
+          <t>n_comp=11</t>
+        </is>
+      </c>
+      <c r="S313" t="inlineStr">
+        <is>
+          <t>[72. 72. 73. 73. 72. 72. 70. 70. 70. 70. 64. 64. 63. 63. 64. 64. 62. 62.
+ 62. 62. 43. 43. 46. 34. 34. 31. 31. 72. 72. 66. 66. 62. 62. 62. 62. 62.
+ 62. 58. 58. 74. 74. 72. 72. 72. 72. 62. 62. 59. 59. 53. 53. 70. 70. 60.
+ 60. 61. 61. 54. 54. 52. 52. 51. 51. 71. 71. 55. 55. 63. 63. 60. 60. 46.
+ 46. 73. 73. 71. 71. 67. 67. 59. 59. 10. 10. 63. 73. 46. 62. 72. 61. 51.
+ 60. 46.]</t>
+        </is>
+      </c>
+      <c r="T313" t="inlineStr">
+        <is>
+          <t>[[76.0924114 ]
+ [70.16407961]
+ [76.10436352]
+ [75.97050285]
+ [69.58482272]
+ [74.47537362]
+ [71.4088506 ]
+ [63.31399357]
+ [71.99213544]
+ [70.83677378]
+ [65.37749448]
+ [59.37392043]
+ [60.63539927]
+ [63.19146582]
+ [64.37750582]
+ [62.04223558]
+ [67.96263854]
+ [63.52042322]
+ [61.31674672]
+ [65.4998003 ]
+ [49.78320939]
+ [50.40229069]
+ [42.8810204 ]
+ [35.87423181]
+ [38.04163568]
+ [34.07611788]
+ [33.65410992]
+ [67.24513388]
+ [71.85135818]
+ [65.6180343 ]
+ [67.83975975]
+ [61.88095386]
+ [60.45144706]
+ [65.98082867]
+ [62.21293602]
+ [59.40332797]
+ [62.53550281]
+ [60.7144087 ]
+ [57.00630325]
+ [72.76566637]
+ [72.10021032]
+ [71.75966922]
+ [70.49693972]
+ [71.04091391]
+ [70.97749015]
+ [62.15701138]
+ [60.1765231 ]
+ [63.33683704]
+ [62.92034115]
+ [57.12574819]
+ [54.27208413]
+ [68.89836246]
+ [68.40854413]
+ [58.54245523]
+ [57.18150549]
+ [62.54203133]
+ [58.07624162]
+ [57.38038576]
+ [54.05374471]
+ [56.43405219]
+ [50.29729018]
+ [48.44406145]
+ [47.13566197]
+ [68.95793288]
+ [72.89783232]
+ [52.49287048]
+ [52.25493944]
+ [56.93865807]
+ [59.12739889]
+ [65.33803389]
+ [60.96036489]
+ [48.07710058]
+ [45.04821804]
+ [75.87313004]
+ [71.81064598]
+ [70.37964948]
+ [67.48458325]
+ [67.38405949]
+ [68.09308232]
+ [55.04820936]
+ [58.76220483]
+ [ 7.09610423]
+ [ 7.43274323]
+ [61.86180046]
+ [73.65069588]
+ [42.97332233]
+ [61.6592899 ]
+ [71.93983139]
+ [59.57075878]
+ [50.63288981]
+ [62.2736881 ]
+ [46.86428201]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>SG_NONE_PLSR</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>0.9850</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>0.9782</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>0.9703</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>0.9569</t>
+        </is>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>4.8160</t>
+        </is>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>2.0672</t>
+        </is>
+      </c>
+      <c r="M314" t="inlineStr">
+        <is>
+          <t>0.6355</t>
+        </is>
+      </c>
+      <c r="N314" t="inlineStr">
+        <is>
+          <t>0.6788</t>
+        </is>
+      </c>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>0.6785</t>
+        </is>
+      </c>
+      <c r="P314" t="inlineStr">
+        <is>
+          <t>{'method': ['sg']}</t>
+        </is>
+      </c>
+      <c r="Q314" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R314" t="inlineStr">
+        <is>
+          <t>n_comp=11</t>
+        </is>
+      </c>
+      <c r="S314" t="inlineStr">
+        <is>
+          <t>[72. 72. 73. 73. 72. 72. 70. 70. 70. 70. 64. 64. 63. 63. 64. 64. 62. 62.
+ 62. 62. 43. 43. 46. 34. 34. 31. 31. 72. 72. 66. 66. 62. 62. 62. 62. 62.
+ 62. 58. 58. 74. 74. 72. 72. 72. 72. 62. 62. 59. 59. 53. 53. 70. 70. 60.
+ 60. 61. 61. 54. 54. 52. 52. 51. 51. 71. 71. 55. 55. 63. 63. 60. 60. 46.
+ 46. 73. 73. 71. 71. 67. 67. 59. 59. 10. 10. 63. 73. 46. 62. 72. 61. 51.
+ 60. 46.]</t>
+        </is>
+      </c>
+      <c r="T314" t="inlineStr">
+        <is>
+          <t>[[74.33860593]
+ [70.7716612 ]
+ [77.59587159]
+ [74.04490225]
+ [71.1815919 ]
+ [74.55135854]
+ [68.20224293]
+ [65.89532833]
+ [70.6481016 ]
+ [72.84180314]
+ [64.25345188]
+ [59.80029074]
+ [59.29678939]
+ [61.20221248]
+ [66.76652281]
+ [61.80111577]
+ [64.99964632]
+ [64.12764856]
+ [61.60118623]
+ [66.40298406]
+ [48.6583581 ]
+ [50.088662  ]
+ [41.24764256]
+ [36.03548795]
+ [39.3893175 ]
+ [33.41661986]
+ [33.01179056]
+ [70.91083698]
+ [72.69520055]
+ [64.50898606]
+ [67.71956965]
+ [61.5758864 ]
+ [59.3241445 ]
+ [64.07191684]
+ [63.05253603]
+ [59.72255619]
+ [63.08313032]
+ [60.12712094]
+ [57.80103605]
+ [73.77750032]
+ [73.34006788]
+ [72.79327999]
+ [72.44888288]
+ [71.37428911]
+ [70.4142585 ]
+ [60.68414429]
+ [59.66305195]
+ [60.33189484]
+ [60.52401282]
+ [57.26257017]
+ [55.6112904 ]
+ [70.57182919]
+ [68.12908391]
+ [59.26656828]
+ [57.62764097]
+ [59.47117054]
+ [60.35836688]
+ [58.82825331]
+ [54.20272264]
+ [57.33340128]
+ [51.49215312]
+ [47.941485  ]
+ [47.07235626]
+ [71.58573576]
+ [72.5493717 ]
+ [53.04747376]
+ [54.34263724]
+ [58.96944841]
+ [57.66183746]
+ [65.06954288]
+ [62.18034867]
+ [48.54194744]
+ [46.16662481]
+ [72.9040263 ]
+ [71.2143018 ]
+ [68.71876018]
+ [68.02740555]
+ [67.58648194]
+ [67.20571385]
+ [55.17681859]
+ [58.07450824]
+ [ 9.45936251]
+ [ 9.35840287]
+ [60.57841723]
+ [73.40348327]
+ [41.44469905]
+ [61.36511594]
+ [72.20161602]
+ [59.63751129]
+ [50.47275306]
+ [63.07675081]
+ [48.6959491 ]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>DT_NONE_PLSR</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>0.9881</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>0.9748</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>0.9764</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>0.9502</t>
+        </is>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>4.4789</t>
+        </is>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>2.2502</t>
+        </is>
+      </c>
+      <c r="M315" t="inlineStr">
+        <is>
+          <t>5.2443</t>
+        </is>
+      </c>
+      <c r="N315" t="inlineStr">
+        <is>
+          <t>5.4353</t>
+        </is>
+      </c>
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>5.4357</t>
+        </is>
+      </c>
+      <c r="P315" t="inlineStr">
+        <is>
+          <t>{'method': ['dt']}</t>
+        </is>
+      </c>
+      <c r="Q315" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R315" t="inlineStr">
+        <is>
+          <t>n_comp=11</t>
+        </is>
+      </c>
+      <c r="S315" t="inlineStr">
+        <is>
+          <t>[72. 72. 73. 73. 72. 72. 70. 70. 70. 70. 64. 64. 63. 63. 64. 64. 62. 62.
+ 62. 62. 43. 43. 46. 34. 34. 31. 31. 72. 72. 66. 66. 62. 62. 62. 62. 62.
+ 62. 58. 58. 74. 74. 72. 72. 72. 72. 62. 62. 59. 59. 53. 53. 70. 70. 60.
+ 60. 61. 61. 54. 54. 52. 52. 51. 51. 71. 71. 55. 55. 63. 63. 60. 60. 46.
+ 46. 73. 73. 71. 71. 67. 67. 59. 59. 10. 10. 63. 73. 46. 62. 72. 61. 51.
+ 60. 46.]</t>
+        </is>
+      </c>
+      <c r="T315" t="inlineStr">
+        <is>
+          <t>[[76.0924114 ]
+ [70.16407961]
+ [76.10436352]
+ [75.97050285]
+ [69.58482272]
+ [74.47537362]
+ [71.4088506 ]
+ [63.31399357]
+ [71.99213544]
+ [70.83677378]
+ [65.37749448]
+ [59.37392043]
+ [60.63539927]
+ [63.19146582]
+ [64.37750582]
+ [62.04223558]
+ [67.96263854]
+ [63.52042322]
+ [61.31674672]
+ [65.4998003 ]
+ [49.78320939]
+ [50.40229069]
+ [42.8810204 ]
+ [35.87423181]
+ [38.04163568]
+ [34.07611788]
+ [33.65410992]
+ [67.24513388]
+ [71.85135818]
+ [65.6180343 ]
+ [67.83975975]
+ [61.88095386]
+ [60.45144706]
+ [65.98082867]
+ [62.21293602]
+ [59.40332797]
+ [62.53550281]
+ [60.7144087 ]
+ [57.00630325]
+ [72.76566637]
+ [72.10021032]
+ [71.75966922]
+ [70.49693972]
+ [71.04091391]
+ [70.97749015]
+ [62.15701138]
+ [60.1765231 ]
+ [63.33683704]
+ [62.92034115]
+ [57.12574819]
+ [54.27208413]
+ [68.89836246]
+ [68.40854413]
+ [58.54245523]
+ [57.18150549]
+ [62.54203133]
+ [58.07624162]
+ [57.38038576]
+ [54.05374471]
+ [56.43405219]
+ [50.29729018]
+ [48.44406145]
+ [47.13566197]
+ [68.95793288]
+ [72.89783232]
+ [52.49287048]
+ [52.25493944]
+ [56.93865807]
+ [59.12739889]
+ [65.33803389]
+ [60.96036489]
+ [48.07710058]
+ [45.04821804]
+ [75.87313004]
+ [71.81064598]
+ [70.37964948]
+ [67.48458325]
+ [67.38405949]
+ [68.09308232]
+ [55.04820936]
+ [58.76220483]
+ [ 7.09610423]
+ [ 7.43274323]
+ [61.86180046]
+ [73.65069588]
+ [42.97332233]
+ [61.6592899 ]
+ [71.93983139]
+ [59.57075878]
+ [50.63288981]
+ [62.2736881 ]
+ [46.86428201]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>SG_NONE_PLSR</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>0.9850</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>0.9782</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>0.9703</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>0.9569</t>
+        </is>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>4.8160</t>
+        </is>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>2.0672</t>
+        </is>
+      </c>
+      <c r="M316" t="inlineStr">
+        <is>
+          <t>0.4718</t>
+        </is>
+      </c>
+      <c r="N316" t="inlineStr">
+        <is>
+          <t>0.5492</t>
+        </is>
+      </c>
+      <c r="O316" t="inlineStr">
+        <is>
+          <t>0.5494</t>
+        </is>
+      </c>
+      <c r="P316" t="inlineStr">
+        <is>
+          <t>{'method': ['sg']}</t>
+        </is>
+      </c>
+      <c r="Q316" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R316" t="inlineStr">
+        <is>
+          <t>n_comp=11</t>
+        </is>
+      </c>
+      <c r="S316" t="inlineStr">
+        <is>
+          <t>[72. 72. 73. 73. 72. 72. 70. 70. 70. 70. 64. 64. 63. 63. 64. 64. 62. 62.
+ 62. 62. 43. 43. 46. 34. 34. 31. 31. 72. 72. 66. 66. 62. 62. 62. 62. 62.
+ 62. 58. 58. 74. 74. 72. 72. 72. 72. 62. 62. 59. 59. 53. 53. 70. 70. 60.
+ 60. 61. 61. 54. 54. 52. 52. 51. 51. 71. 71. 55. 55. 63. 63. 60. 60. 46.
+ 46. 73. 73. 71. 71. 67. 67. 59. 59. 10. 10. 63. 73. 46. 62. 72. 61. 51.
+ 60. 46.]</t>
+        </is>
+      </c>
+      <c r="T316" t="inlineStr">
+        <is>
+          <t>[[74.33860593]
+ [70.7716612 ]
+ [77.59587159]
+ [74.04490225]
+ [71.1815919 ]
+ [74.55135854]
+ [68.20224293]
+ [65.89532833]
+ [70.6481016 ]
+ [72.84180314]
+ [64.25345188]
+ [59.80029074]
+ [59.29678939]
+ [61.20221248]
+ [66.76652281]
+ [61.80111577]
+ [64.99964632]
+ [64.12764856]
+ [61.60118623]
+ [66.40298406]
+ [48.6583581 ]
+ [50.088662  ]
+ [41.24764256]
+ [36.03548795]
+ [39.3893175 ]
+ [33.41661986]
+ [33.01179056]
+ [70.91083698]
+ [72.69520055]
+ [64.50898606]
+ [67.71956965]
+ [61.5758864 ]
+ [59.3241445 ]
+ [64.07191684]
+ [63.05253603]
+ [59.72255619]
+ [63.08313032]
+ [60.12712094]
+ [57.80103605]
+ [73.77750032]
+ [73.34006788]
+ [72.79327999]
+ [72.44888288]
+ [71.37428911]
+ [70.4142585 ]
+ [60.68414429]
+ [59.66305195]
+ [60.33189484]
+ [60.52401282]
+ [57.26257017]
+ [55.6112904 ]
+ [70.57182919]
+ [68.12908391]
+ [59.26656828]
+ [57.62764097]
+ [59.47117054]
+ [60.35836688]
+ [58.82825331]
+ [54.20272264]
+ [57.33340128]
+ [51.49215312]
+ [47.941485  ]
+ [47.07235626]
+ [71.58573576]
+ [72.5493717 ]
+ [53.04747376]
+ [54.34263724]
+ [58.96944841]
+ [57.66183746]
+ [65.06954288]
+ [62.18034867]
+ [48.54194744]
+ [46.16662481]
+ [72.9040263 ]
+ [71.2143018 ]
+ [68.71876018]
+ [68.02740555]
+ [67.58648194]
+ [67.20571385]
+ [55.17681859]
+ [58.07450824]
+ [ 9.45936251]
+ [ 9.35840287]
+ [60.57841723]
+ [73.40348327]
+ [41.44469905]
+ [61.36511594]
+ [72.20161602]
+ [59.63751129]
+ [50.47275306]
+ [63.07675081]
+ [48.6959491 ]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>DT_NONE_PLSR</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>0.9881</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>0.9748</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>0.9764</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>0.9502</t>
+        </is>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>4.4789</t>
+        </is>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>2.2502</t>
+        </is>
+      </c>
+      <c r="M317" t="inlineStr">
+        <is>
+          <t>12.1621</t>
+        </is>
+      </c>
+      <c r="N317" t="inlineStr">
+        <is>
+          <t>12.6336</t>
+        </is>
+      </c>
+      <c r="O317" t="inlineStr">
+        <is>
+          <t>12.6351</t>
+        </is>
+      </c>
+      <c r="P317" t="inlineStr">
+        <is>
+          <t>{'method': ['dt']}</t>
+        </is>
+      </c>
+      <c r="Q317" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R317" t="inlineStr">
+        <is>
+          <t>n_comp=11</t>
+        </is>
+      </c>
+      <c r="S317" t="inlineStr">
+        <is>
+          <t>[72. 72. 73. 73. 72. 72. 70. 70. 70. 70. 64. 64. 63. 63. 64. 64. 62. 62.
+ 62. 62. 43. 43. 46. 34. 34. 31. 31. 72. 72. 66. 66. 62. 62. 62. 62. 62.
+ 62. 58. 58. 74. 74. 72. 72. 72. 72. 62. 62. 59. 59. 53. 53. 70. 70. 60.
+ 60. 61. 61. 54. 54. 52. 52. 51. 51. 71. 71. 55. 55. 63. 63. 60. 60. 46.
+ 46. 73. 73. 71. 71. 67. 67. 59. 59. 10. 10. 63. 73. 46. 62. 72. 61. 51.
+ 60. 46.]</t>
+        </is>
+      </c>
+      <c r="T317" t="inlineStr">
+        <is>
+          <t>[[76.0924114 ]
+ [70.16407961]
+ [76.10436352]
+ [75.97050285]
+ [69.58482272]
+ [74.47537362]
+ [71.4088506 ]
+ [63.31399357]
+ [71.99213544]
+ [70.83677378]
+ [65.37749448]
+ [59.37392043]
+ [60.63539927]
+ [63.19146582]
+ [64.37750582]
+ [62.04223558]
+ [67.96263854]
+ [63.52042322]
+ [61.31674672]
+ [65.4998003 ]
+ [49.78320939]
+ [50.40229069]
+ [42.8810204 ]
+ [35.87423181]
+ [38.04163568]
+ [34.07611788]
+ [33.65410992]
+ [67.24513388]
+ [71.85135818]
+ [65.6180343 ]
+ [67.83975975]
+ [61.88095386]
+ [60.45144706]
+ [65.98082867]
+ [62.21293602]
+ [59.40332797]
+ [62.53550281]
+ [60.7144087 ]
+ [57.00630325]
+ [72.76566637]
+ [72.10021032]
+ [71.75966922]
+ [70.49693972]
+ [71.04091391]
+ [70.97749015]
+ [62.15701138]
+ [60.1765231 ]
+ [63.33683704]
+ [62.92034115]
+ [57.12574819]
+ [54.27208413]
+ [68.89836246]
+ [68.40854413]
+ [58.54245523]
+ [57.18150549]
+ [62.54203133]
+ [58.07624162]
+ [57.38038576]
+ [54.05374471]
+ [56.43405219]
+ [50.29729018]
+ [48.44406145]
+ [47.13566197]
+ [68.95793288]
+ [72.89783232]
+ [52.49287048]
+ [52.25493944]
+ [56.93865807]
+ [59.12739889]
+ [65.33803389]
+ [60.96036489]
+ [48.07710058]
+ [45.04821804]
+ [75.87313004]
+ [71.81064598]
+ [70.37964948]
+ [67.48458325]
+ [67.38405949]
+ [68.09308232]
+ [55.04820936]
+ [58.76220483]
+ [ 7.09610423]
+ [ 7.43274323]
+ [61.86180046]
+ [73.65069588]
+ [42.97332233]
+ [61.6592899 ]
+ [71.93983139]
+ [59.57075878]
+ [50.63288981]
+ [62.2736881 ]
+ [46.86428201]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>SG_NONE_PLSR</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>0.9850</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>0.9782</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>0.9703</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>0.9569</t>
+        </is>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>4.8160</t>
+        </is>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>2.0672</t>
+        </is>
+      </c>
+      <c r="M318" t="inlineStr">
+        <is>
+          <t>0.8331</t>
+        </is>
+      </c>
+      <c r="N318" t="inlineStr">
+        <is>
+          <t>0.9055</t>
+        </is>
+      </c>
+      <c r="O318" t="inlineStr">
+        <is>
+          <t>0.9064</t>
+        </is>
+      </c>
+      <c r="P318" t="inlineStr">
+        <is>
+          <t>{'method': ['sg']}</t>
+        </is>
+      </c>
+      <c r="Q318" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R318" t="inlineStr">
+        <is>
+          <t>n_comp=11</t>
+        </is>
+      </c>
+      <c r="S318" t="inlineStr">
+        <is>
+          <t>[72. 72. 73. 73. 72. 72. 70. 70. 70. 70. 64. 64. 63. 63. 64. 64. 62. 62.
+ 62. 62. 43. 43. 46. 34. 34. 31. 31. 72. 72. 66. 66. 62. 62. 62. 62. 62.
+ 62. 58. 58. 74. 74. 72. 72. 72. 72. 62. 62. 59. 59. 53. 53. 70. 70. 60.
+ 60. 61. 61. 54. 54. 52. 52. 51. 51. 71. 71. 55. 55. 63. 63. 60. 60. 46.
+ 46. 73. 73. 71. 71. 67. 67. 59. 59. 10. 10. 63. 73. 46. 62. 72. 61. 51.
+ 60. 46.]</t>
+        </is>
+      </c>
+      <c r="T318" t="inlineStr">
+        <is>
+          <t>[[74.33860593]
+ [70.7716612 ]
+ [77.59587159]
+ [74.04490225]
+ [71.1815919 ]
+ [74.55135854]
+ [68.20224293]
+ [65.89532833]
+ [70.6481016 ]
+ [72.84180314]
+ [64.25345188]
+ [59.80029074]
+ [59.29678939]
+ [61.20221248]
+ [66.76652281]
+ [61.80111577]
+ [64.99964632]
+ [64.12764856]
+ [61.60118623]
+ [66.40298406]
+ [48.6583581 ]
+ [50.088662  ]
+ [41.24764256]
+ [36.03548795]
+ [39.3893175 ]
+ [33.41661986]
+ [33.01179056]
+ [70.91083698]
+ [72.69520055]
+ [64.50898606]
+ [67.71956965]
+ [61.5758864 ]
+ [59.3241445 ]
+ [64.07191684]
+ [63.05253603]
+ [59.72255619]
+ [63.08313032]
+ [60.12712094]
+ [57.80103605]
+ [73.77750032]
+ [73.34006788]
+ [72.79327999]
+ [72.44888288]
+ [71.37428911]
+ [70.4142585 ]
+ [60.68414429]
+ [59.66305195]
+ [60.33189484]
+ [60.52401282]
+ [57.26257017]
+ [55.6112904 ]
+ [70.57182919]
+ [68.12908391]
+ [59.26656828]
+ [57.62764097]
+ [59.47117054]
+ [60.35836688]
+ [58.82825331]
+ [54.20272264]
+ [57.33340128]
+ [51.49215312]
+ [47.941485  ]
+ [47.07235626]
+ [71.58573576]
+ [72.5493717 ]
+ [53.04747376]
+ [54.34263724]
+ [58.96944841]
+ [57.66183746]
+ [65.06954288]
+ [62.18034867]
+ [48.54194744]
+ [46.16662481]
+ [72.9040263 ]
+ [71.2143018 ]
+ [68.71876018]
+ [68.02740555]
+ [67.58648194]
+ [67.20571385]
+ [55.17681859]
+ [58.07450824]
+ [ 9.45936251]
+ [ 9.35840287]
+ [60.57841723]
+ [73.40348327]
+ [41.44469905]
+ [61.36511594]
+ [72.20161602]
+ [59.63751129]
+ [50.47275306]
+ [63.07675081]
+ [48.6959491 ]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>DT_PCA_PLSR</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>0.9839</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>0.9816</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>0.9681</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>0.9635</t>
+        </is>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>5.2322</t>
+        </is>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>1.8628</t>
+        </is>
+      </c>
+      <c r="M319" t="inlineStr">
+        <is>
+          <t>0.1542</t>
+        </is>
+      </c>
+      <c r="N319" t="inlineStr">
+        <is>
+          <t>1.7269</t>
+        </is>
+      </c>
+      <c r="O319" t="inlineStr">
+        <is>
+          <t>1.7274</t>
+        </is>
+      </c>
+      <c r="P319" t="inlineStr">
+        <is>
+          <t>{'method': ['dt']}</t>
+        </is>
+      </c>
+      <c r="Q319" t="inlineStr">
+        <is>
+          <t>[{'n_components': 56}]</t>
+        </is>
+      </c>
+      <c r="R319" t="inlineStr">
+        <is>
+          <t>n_comp=11</t>
+        </is>
+      </c>
+      <c r="S319" t="inlineStr">
+        <is>
+          <t>[72. 72. 73. 73. 72. 72. 70. 70. 70. 70. 64. 64. 63. 63. 64. 64. 62. 62.
+ 62. 62. 43. 43. 46. 34. 34. 31. 31. 72. 72. 66. 66. 62. 62. 62. 62. 62.
+ 62. 58. 58. 74. 74. 72. 72. 72. 72. 62. 62. 59. 59. 53. 53. 70. 70. 60.
+ 60. 61. 61. 54. 54. 52. 52. 51. 51. 71. 71. 55. 55. 63. 63. 60. 60. 46.
+ 46. 73. 73. 71. 71. 67. 67. 59. 59. 10. 10. 63. 73. 46. 62. 72. 61. 51.
+ 60. 46.]</t>
+        </is>
+      </c>
+      <c r="T319" t="inlineStr">
+        <is>
+          <t>[[72.69804887]
+ [70.8264395 ]
+ [75.0936854 ]
+ [73.21434748]
+ [70.77998211]
+ [74.40637609]
+ [69.88738091]
+ [68.29492819]
+ [70.05417534]
+ [72.50715869]
+ [63.86336709]
+ [61.11328054]
+ [60.19428162]
+ [60.22143188]
+ [65.62343514]
+ [60.82831657]
+ [66.47918569]
+ [63.59201189]
+ [60.29161835]
+ [65.82592514]
+ [47.1613168 ]
+ [48.62149178]
+ [42.32125639]
+ [36.80988294]
+ [38.21933143]
+ [33.65780905]
+ [33.0219671 ]
+ [70.49493293]
+ [70.75561487]
+ [63.72514203]
+ [66.31216858]
+ [60.75066433]
+ [59.21273801]
+ [64.02058745]
+ [63.10962612]
+ [60.35186527]
+ [62.70765932]
+ [59.92026787]
+ [58.62394056]
+ [73.93819143]
+ [74.20235685]
+ [72.23255808]
+ [71.97553193]
+ [71.11486684]
+ [71.13113096]
+ [61.27672138]
+ [59.60668026]
+ [60.14840636]
+ [61.00382825]
+ [55.11728169]
+ [56.32265186]
+ [70.16727057]
+ [69.50846083]
+ [58.93940101]
+ [58.23382151]
+ [60.90585157]
+ [59.95844692]
+ [60.72226285]
+ [53.88911634]
+ [57.76801686]
+ [52.08319597]
+ [49.46552929]
+ [48.61692195]
+ [71.47010247]
+ [73.06038077]
+ [53.670486  ]
+ [54.72234662]
+ [58.56783626]
+ [57.72026707]
+ [64.07404755]
+ [62.62417101]
+ [49.89383785]
+ [44.61558337]
+ [72.45952874]
+ [71.28870898]
+ [68.70637766]
+ [68.87694349]
+ [67.3020968 ]
+ [68.37607111]
+ [55.49995344]
+ [57.51834224]
+ [ 8.74220503]
+ [10.22636647]
+ [60.56356106]
+ [72.89251338]
+ [41.08358067]
+ [61.30358911]
+ [71.96255509]
+ [59.62922889]
+ [50.80820454]
+ [63.441542  ]
+ [48.56872469]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>SG_PCA_PLSR</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>0.9840</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>0.9823</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>0.9682</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>0.9649</t>
+        </is>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>5.3383</t>
+        </is>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>1.8578</t>
+        </is>
+      </c>
+      <c r="M320" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="N320" t="inlineStr">
+        <is>
+          <t>3.6959</t>
+        </is>
+      </c>
+      <c r="O320" t="inlineStr">
+        <is>
+          <t>3.6964</t>
+        </is>
+      </c>
+      <c r="P320" t="inlineStr">
+        <is>
+          <t>{'method': ['sg']}</t>
+        </is>
+      </c>
+      <c r="Q320" t="inlineStr">
+        <is>
+          <t>[{'n_components': 56}]</t>
+        </is>
+      </c>
+      <c r="R320" t="inlineStr">
+        <is>
+          <t>n_comp=11</t>
+        </is>
+      </c>
+      <c r="S320" t="inlineStr">
+        <is>
+          <t>[72. 72. 73. 73. 72. 72. 70. 70. 70. 70. 64. 64. 63. 63. 64. 64. 62. 62.
+ 62. 62. 43. 43. 46. 34. 34. 31. 31. 72. 72. 66. 66. 62. 62. 62. 62. 62.
+ 62. 58. 58. 74. 74. 72. 72. 72. 72. 62. 62. 59. 59. 53. 53. 70. 70. 60.
+ 60. 61. 61. 54. 54. 52. 52. 51. 51. 71. 71. 55. 55. 63. 63. 60. 60. 46.
+ 46. 73. 73. 71. 71. 67. 67. 59. 59. 10. 10. 63. 73. 46. 62. 72. 61. 51.
+ 60. 46.]</t>
+        </is>
+      </c>
+      <c r="T320" t="inlineStr">
+        <is>
+          <t>[[73.03109891]
+ [69.79162782]
+ [74.44838117]
+ [73.79864761]
+ [70.73615253]
+ [73.83065505]
+ [70.78911783]
+ [67.14718555]
+ [70.69018748]
+ [71.07014519]
+ [64.9346651 ]
+ [60.90778583]
+ [60.20043975]
+ [60.07381462]
+ [65.75753346]
+ [60.63347068]
+ [66.89035779]
+ [64.03866175]
+ [59.76439299]
+ [65.5559883 ]
+ [47.47288002]
+ [48.11811846]
+ [42.03391697]
+ [36.01877133]
+ [37.9178002 ]
+ [33.76995563]
+ [33.02092845]
+ [70.31328745]
+ [71.01070796]
+ [64.07467398]
+ [65.90355257]
+ [61.14657774]
+ [59.73228961]
+ [63.92966486]
+ [63.22756189]
+ [60.23407153]
+ [62.30985252]
+ [59.06527783]
+ [58.432492  ]
+ [74.13396419]
+ [75.32198056]
+ [71.29112618]
+ [71.90642561]
+ [70.6994107 ]
+ [71.81276926]
+ [60.93213138]
+ [59.41919767]
+ [60.20462429]
+ [61.09578751]
+ [54.56570965]
+ [56.16656371]
+ [69.53062224]
+ [70.18041329]
+ [58.30693709]
+ [58.16762012]
+ [60.83281732]
+ [59.94789083]
+ [60.77118875]
+ [53.55317483]
+ [57.43745234]
+ [52.33693438]
+ [50.64088768]
+ [48.7329783 ]
+ [71.67167826]
+ [73.09119761]
+ [53.9724706 ]
+ [55.08213121]
+ [58.87418216]
+ [58.02890011]
+ [63.70779185]
+ [62.19708876]
+ [49.39281144]
+ [44.58158035]
+ [72.88774024]
+ [71.48448728]
+ [68.16011514]
+ [68.82387393]
+ [67.54635906]
+ [68.46840165]
+ [55.81972458]
+ [57.7850942 ]
+ [ 8.10352711]
+ [10.03081838]
+ [60.76830969]
+ [72.89565432]
+ [41.17437549]
+ [61.35999526]
+ [71.80125582]
+ [59.65613335]
+ [50.82888631]
+ [63.18296644]
+ [48.69329625]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>DT_CARS_PLSR</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>CARS</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>0.9840</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>0.9794</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>0.9682</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>0.9592</t>
+        </is>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>4.9522</t>
+        </is>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>1.9919</t>
+        </is>
+      </c>
+      <c r="M321" t="inlineStr">
+        <is>
+          <t>0.1996</t>
+        </is>
+      </c>
+      <c r="N321" t="inlineStr">
+        <is>
+          <t>0.8322</t>
+        </is>
+      </c>
+      <c r="O321" t="inlineStr">
+        <is>
+          <t>0.8331</t>
+        </is>
+      </c>
+      <c r="P321" t="inlineStr">
+        <is>
+          <t>{'method': ['dt']}</t>
+        </is>
+      </c>
+      <c r="Q321" t="inlineStr">
+        <is>
+          <t>[{'index': [3, 5, 8, 14, 26, 31, 41, 43, 48, 49, 53, 59, 65, 72, 80, 81, 85, 87, 90, 110, 111, 116, 120, 122, 126, 127, 128, 153, 158, 175, 180, 184, 197, 198, 202, 205, 206, 214, 227, 240, 241, 255]}]</t>
+        </is>
+      </c>
+      <c r="R321" t="inlineStr">
+        <is>
+          <t>n_comp=11</t>
+        </is>
+      </c>
+      <c r="S321" t="inlineStr">
+        <is>
+          <t>[72. 72. 73. 73. 72. 72. 70. 70. 70. 70. 64. 64. 63. 63. 64. 64. 62. 62.
+ 62. 62. 43. 43. 46. 34. 34. 31. 31. 72. 72. 66. 66. 62. 62. 62. 62. 62.
+ 62. 58. 58. 74. 74. 72. 72. 72. 72. 62. 62. 59. 59. 53. 53. 70. 70. 60.
+ 60. 61. 61. 54. 54. 52. 52. 51. 51. 71. 71. 55. 55. 63. 63. 60. 60. 46.
+ 46. 73. 73. 71. 71. 67. 67. 59. 59. 10. 10. 63. 73. 46. 62. 72. 61. 51.
+ 60. 46.]</t>
+        </is>
+      </c>
+      <c r="T321" t="inlineStr">
+        <is>
+          <t>[[71.88431514]
+ [69.86530157]
+ [75.12479935]
+ [73.27073342]
+ [70.64609917]
+ [74.09126943]
+ [70.36415242]
+ [66.5161541 ]
+ [69.10297963]
+ [71.07592721]
+ [63.81010323]
+ [61.27956537]
+ [59.68301384]
+ [61.37097877]
+ [64.34528039]
+ [61.99710835]
+ [65.16216602]
+ [66.03220108]
+ [61.8223125 ]
+ [65.25109313]
+ [47.0054305 ]
+ [47.96309947]
+ [42.29605633]
+ [37.03652933]
+ [38.82177715]
+ [33.6414837 ]
+ [34.4932257 ]
+ [70.77055906]
+ [72.54888588]
+ [64.10646199]
+ [66.71952457]
+ [61.03332742]
+ [59.28303424]
+ [63.61093957]
+ [63.52069757]
+ [61.75121509]
+ [63.53607591]
+ [59.74105144]
+ [58.73818428]
+ [74.43217923]
+ [75.25586694]
+ [73.40317218]
+ [72.36949767]
+ [72.94420309]
+ [70.23793287]
+ [61.27019883]
+ [60.4871695 ]
+ [60.27372222]
+ [60.34939259]
+ [55.89671259]
+ [55.84971518]
+ [69.16547153]
+ [68.06473315]
+ [61.53629765]
+ [58.30153182]
+ [60.00956924]
+ [58.43648458]
+ [61.57967783]
+ [54.48060613]
+ [57.7137332 ]
+ [52.76511359]
+ [50.06193405]
+ [47.91724997]
+ [70.57795061]
+ [73.03329668]
+ [52.87993013]
+ [54.91051204]
+ [58.88290131]
+ [56.96014539]
+ [65.28217646]
+ [63.86277999]
+ [48.58591169]
+ [45.48379065]
+ [73.32084408]
+ [71.40989709]
+ [69.34627879]
+ [67.99072911]
+ [66.5600292 ]
+ [67.23042816]
+ [53.9960988 ]
+ [56.55491803]
+ [ 8.81175549]
+ [ 8.23847915]
+ [60.77355454]
+ [72.95188369]
+ [41.04542902]
+ [61.12086882]
+ [72.23974227]
+ [59.18399119]
+ [51.2452848 ]
+ [63.58090101]
+ [48.77475633]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>SG_CARS_PLSR</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>CARS</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>0.9839</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>0.9795</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>0.9681</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>0.9593</t>
+        </is>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>4.9587</t>
+        </is>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>1.9758</t>
+        </is>
+      </c>
+      <c r="M322" t="inlineStr">
+        <is>
+          <t>0.1893</t>
+        </is>
+      </c>
+      <c r="N322" t="inlineStr">
+        <is>
+          <t>0.3568</t>
+        </is>
+      </c>
+      <c r="O322" t="inlineStr">
+        <is>
+          <t>0.3576</t>
+        </is>
+      </c>
+      <c r="P322" t="inlineStr">
+        <is>
+          <t>{'method': ['sg']}</t>
+        </is>
+      </c>
+      <c r="Q322" t="inlineStr">
+        <is>
+          <t>[{'index': [3, 5, 8, 14, 26, 31, 41, 43, 48, 49, 53, 59, 65, 72, 80, 81, 85, 87, 90, 110, 111, 116, 120, 122, 126, 127, 128, 153, 158, 175, 180, 184, 197, 198, 202, 205, 206, 214, 227, 240, 241, 255]}]</t>
+        </is>
+      </c>
+      <c r="R322" t="inlineStr">
+        <is>
+          <t>n_comp=11</t>
+        </is>
+      </c>
+      <c r="S322" t="inlineStr">
+        <is>
+          <t>[72. 72. 73. 73. 72. 72. 70. 70. 70. 70. 64. 64. 63. 63. 64. 64. 62. 62.
+ 62. 62. 43. 43. 46. 34. 34. 31. 31. 72. 72. 66. 66. 62. 62. 62. 62. 62.
+ 62. 58. 58. 74. 74. 72. 72. 72. 72. 62. 62. 59. 59. 53. 53. 70. 70. 60.
+ 60. 61. 61. 54. 54. 52. 52. 51. 51. 71. 71. 55. 55. 63. 63. 60. 60. 46.
+ 46. 73. 73. 71. 71. 67. 67. 59. 59. 10. 10. 63. 73. 46. 62. 72. 61. 51.
+ 60. 46.]</t>
+        </is>
+      </c>
+      <c r="T322" t="inlineStr">
+        <is>
+          <t>[[71.61738809]
+ [69.63641635]
+ [74.91237184]
+ [73.00326212]
+ [71.10124509]
+ [73.85853446]
+ [70.50058109]
+ [66.80928325]
+ [69.15583907]
+ [71.10687506]
+ [63.64524529]
+ [60.9236846 ]
+ [59.91436324]
+ [61.25097278]
+ [64.49126819]
+ [61.89938782]
+ [65.0810264 ]
+ [65.96742362]
+ [61.83364764]
+ [64.98476162]
+ [46.89836505]
+ [47.84792919]
+ [42.42915718]
+ [37.10972502]
+ [38.84609169]
+ [33.55220832]
+ [34.50832609]
+ [70.62476203]
+ [72.31062428]
+ [63.76838006]
+ [66.74173462]
+ [60.93628926]
+ [59.51857849]
+ [63.7316151 ]
+ [63.41278239]
+ [61.70636463]
+ [63.38756312]
+ [59.64512454]
+ [58.73781167]
+ [74.66767431]
+ [75.33093708]
+ [73.49481105]
+ [72.26296339]
+ [72.84219668]
+ [70.62153581]
+ [61.3132669 ]
+ [60.48407145]
+ [60.27990313]
+ [60.30549107]
+ [55.81490303]
+ [55.9345236 ]
+ [69.10620513]
+ [68.16703262]
+ [61.2514789 ]
+ [58.20935812]
+ [59.95930297]
+ [58.49252688]
+ [61.64506259]
+ [54.60243262]
+ [57.77679573]
+ [52.6457037 ]
+ [50.42184083]
+ [48.09805294]
+ [70.55275609]
+ [72.76986087]
+ [52.58653621]
+ [55.09960671]
+ [58.67465044]
+ [56.94351935]
+ [65.67800091]
+ [64.05303184]
+ [48.7201187 ]
+ [45.27240977]
+ [73.06647181]
+ [71.36751007]
+ [69.38744235]
+ [67.76275256]
+ [66.67832912]
+ [67.24591059]
+ [54.03710527]
+ [56.87696202]
+ [ 9.21237461]
+ [ 8.14676768]
+ [60.82685478]
+ [72.82017105]
+ [41.07296102]
+ [61.17351952]
+ [72.32976871]
+ [59.1086153 ]
+ [51.23037056]
+ [63.76965985]
+ [48.46177288]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>DT_SPA_PLSR</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>SPA</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>0.9796</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>0.9811</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>0.9597</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>0.9626</t>
+        </is>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>5.1693</t>
+        </is>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>1.8871</t>
+        </is>
+      </c>
+      <c r="M323" t="inlineStr">
+        <is>
+          <t>0.1695</t>
+        </is>
+      </c>
+      <c r="N323" t="inlineStr">
+        <is>
+          <t>0.6247</t>
+        </is>
+      </c>
+      <c r="O323" t="inlineStr">
+        <is>
+          <t>0.6250</t>
+        </is>
+      </c>
+      <c r="P323" t="inlineStr">
+        <is>
+          <t>{'method': ['dt']}</t>
+        </is>
+      </c>
+      <c r="Q323" t="inlineStr">
+        <is>
+          <t>[{'index': [219, 6, 195, 134, 46, 3, 182, 158, 179, 254, 191, 188, 161, 84, 165, 2, 166, 171, 176, 193, 167, 174, 172, 196, 163, 177, 198, 175, 189, 159, 242, 180, 168]}]</t>
+        </is>
+      </c>
+      <c r="R323" t="inlineStr">
+        <is>
+          <t>n_comp=11</t>
+        </is>
+      </c>
+      <c r="S323" t="inlineStr">
+        <is>
+          <t>[72. 72. 73. 73. 72. 72. 70. 70. 70. 70. 64. 64. 63. 63. 64. 64. 62. 62.
+ 62. 62. 43. 43. 46. 34. 34. 31. 31. 72. 72. 66. 66. 62. 62. 62. 62. 62.
+ 62. 58. 58. 74. 74. 72. 72. 72. 72. 62. 62. 59. 59. 53. 53. 70. 70. 60.
+ 60. 61. 61. 54. 54. 52. 52. 51. 51. 71. 71. 55. 55. 63. 63. 60. 60. 46.
+ 46. 73. 73. 71. 71. 67. 67. 59. 59. 10. 10. 63. 73. 46. 62. 72. 61. 51.
+ 60. 46.]</t>
+        </is>
+      </c>
+      <c r="T323" t="inlineStr">
+        <is>
+          <t>[[69.57119127]
+ [67.9503988 ]
+ [73.65325638]
+ [72.42141151]
+ [71.24118478]
+ [71.69893862]
+ [69.58435506]
+ [67.7190645 ]
+ [70.36508901]
+ [70.44936343]
+ [64.96524436]
+ [59.55301837]
+ [62.63787724]
+ [62.64328486]
+ [66.9156287 ]
+ [61.87002538]
+ [65.87769796]
+ [63.59164541]
+ [61.44489507]
+ [65.51506864]
+ [46.82335068]
+ [47.63984766]
+ [41.08451982]
+ [37.5184742 ]
+ [39.65409455]
+ [31.42548779]
+ [31.96334148]
+ [70.2531535 ]
+ [70.77377374]
+ [64.10252784]
+ [65.64767533]
+ [60.07829845]
+ [59.29106402]
+ [62.44600797]
+ [61.86410016]
+ [60.07809302]
+ [61.45061084]
+ [60.92360096]
+ [59.37305185]
+ [72.61634266]
+ [75.18190913]
+ [72.33638689]
+ [72.94875159]
+ [69.41752546]
+ [73.29167312]
+ [60.64432813]
+ [59.0962737 ]
+ [61.15950795]
+ [59.18174639]
+ [55.61612516]
+ [56.93955107]
+ [71.12185722]
+ [71.5170566 ]
+ [61.61989153]
+ [60.43395303]
+ [59.47007328]
+ [57.26231278]
+ [60.06636424]
+ [55.54857093]
+ [55.55932894]
+ [52.6076399 ]
+ [50.56600542]
+ [49.42246966]
+ [69.45285475]
+ [73.49924132]
+ [53.25212119]
+ [54.68165925]
+ [57.80209091]
+ [59.18813948]
+ [64.67044659]
+ [62.02202018]
+ [47.08892895]
+ [44.94399942]
+ [72.50313548]
+ [70.99692891]
+ [70.16104387]
+ [69.95537759]
+ [66.52968921]
+ [67.45517821]
+ [53.89085104]
+ [58.17519583]
+ [ 8.26457176]
+ [10.16497858]
+ [62.27144686]
+ [72.67786366]
+ [40.08122149]
+ [60.93783338]
+ [73.41977682]
+ [58.80114863]
+ [50.49199461]
+ [63.73479607]
+ [47.84363221]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>SG_SPA_PLSR</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>SPA</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>0.9798</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>0.9812</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>0.9601</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>0.9627</t>
+        </is>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>5.1789</t>
+        </is>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>1.8777</t>
+        </is>
+      </c>
+      <c r="M324" t="inlineStr">
+        <is>
+          <t>0.1890</t>
+        </is>
+      </c>
+      <c r="N324" t="inlineStr">
+        <is>
+          <t>0.3285</t>
+        </is>
+      </c>
+      <c r="O324" t="inlineStr">
+        <is>
+          <t>0.3292</t>
+        </is>
+      </c>
+      <c r="P324" t="inlineStr">
+        <is>
+          <t>{'method': ['sg']}</t>
+        </is>
+      </c>
+      <c r="Q324" t="inlineStr">
+        <is>
+          <t>[{'index': [219, 6, 195, 134, 46, 3, 182, 158, 179, 254, 191, 188, 161, 84, 165, 2, 166, 171, 176, 193, 167, 174, 172, 196, 163, 177, 198, 175, 189, 159, 242, 180, 168]}]</t>
+        </is>
+      </c>
+      <c r="R324" t="inlineStr">
+        <is>
+          <t>n_comp=11</t>
+        </is>
+      </c>
+      <c r="S324" t="inlineStr">
+        <is>
+          <t>[72. 72. 73. 73. 72. 72. 70. 70. 70. 70. 64. 64. 63. 63. 64. 64. 62. 62.
+ 62. 62. 43. 43. 46. 34. 34. 31. 31. 72. 72. 66. 66. 62. 62. 62. 62. 62.
+ 62. 58. 58. 74. 74. 72. 72. 72. 72. 62. 62. 59. 59. 53. 53. 70. 70. 60.
+ 60. 61. 61. 54. 54. 52. 52. 51. 51. 71. 71. 55. 55. 63. 63. 60. 60. 46.
+ 46. 73. 73. 71. 71. 67. 67. 59. 59. 10. 10. 63. 73. 46. 62. 72. 61. 51.
+ 60. 46.]</t>
+        </is>
+      </c>
+      <c r="T324" t="inlineStr">
+        <is>
+          <t>[[69.66987086]
+ [67.91935987]
+ [73.97299112]
+ [72.8047317 ]
+ [70.92822563]
+ [72.1524812 ]
+ [69.28817399]
+ [67.62162576]
+ [70.19548901]
+ [70.17977833]
+ [65.14808638]
+ [59.5630462 ]
+ [62.85826021]
+ [62.38533441]
+ [66.78819105]
+ [61.94039805]
+ [65.72841081]
+ [63.80529012]
+ [61.34151075]
+ [65.5247083 ]
+ [46.78635461]
+ [47.58204083]
+ [40.96837858]
+ [37.64806907]
+ [39.67546762]
+ [31.52113825]
+ [32.0361324 ]
+ [70.35199337]
+ [70.69763978]
+ [64.15834827]
+ [65.76753684]
+ [60.2730056 ]
+ [59.34750015]
+ [62.46156633]
+ [61.74100669]
+ [60.00036409]
+ [61.57369577]
+ [61.03785571]
+ [59.54930404]
+ [72.47215244]
+ [75.06216781]
+ [72.52890332]
+ [72.93443393]
+ [69.76292399]
+ [73.48825939]
+ [60.79806488]
+ [59.02781531]
+ [61.15435678]
+ [59.05387253]
+ [55.71674041]
+ [56.77587612]
+ [71.15654161]
+ [71.34365271]
+ [61.5579131 ]
+ [60.42863219]
+ [59.45319503]
+ [57.31515518]
+ [60.06727649]
+ [55.63165788]
+ [55.55770232]
+ [52.55715677]
+ [50.67418238]
+ [49.38610797]
+ [69.52113131]
+ [73.46027831]
+ [53.13361743]
+ [54.65148114]
+ [58.11268185]
+ [59.15335994]
+ [64.81462694]
+ [62.22132204]
+ [47.27143998]
+ [45.08708951]
+ [72.48814144]
+ [71.14871019]
+ [70.27715914]
+ [70.36102153]
+ [66.45676804]
+ [67.53244446]
+ [53.93316979]
+ [58.38056942]
+ [ 8.34890201]
+ [10.09313042]
+ [62.23245898]
+ [72.87887606]
+ [40.09481877]
+ [60.99566818]
+ [73.37314354]
+ [58.80824461]
+ [50.54231813]
+ [63.86650588]
+ [48.00366233]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>DT_NONE_PLSR</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>0.9881</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>0.9748</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>0.9764</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>0.9502</t>
+        </is>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>4.4789</t>
+        </is>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>2.2502</t>
+        </is>
+      </c>
+      <c r="M325" t="inlineStr">
+        <is>
+          <t>2.5257</t>
+        </is>
+      </c>
+      <c r="N325" t="inlineStr">
+        <is>
+          <t>2.6303</t>
+        </is>
+      </c>
+      <c r="O325" t="inlineStr">
+        <is>
+          <t>2.6306</t>
+        </is>
+      </c>
+      <c r="P325" t="inlineStr">
+        <is>
+          <t>{'method': ['dt']}</t>
+        </is>
+      </c>
+      <c r="Q325" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R325" t="inlineStr">
+        <is>
+          <t>n_comp=11</t>
+        </is>
+      </c>
+      <c r="S325" t="inlineStr">
+        <is>
+          <t>[72. 72. 73. 73. 72. 72. 70. 70. 70. 70. 64. 64. 63. 63. 64. 64. 62. 62.
+ 62. 62. 43. 43. 46. 34. 34. 31. 31. 72. 72. 66. 66. 62. 62. 62. 62. 62.
+ 62. 58. 58. 74. 74. 72. 72. 72. 72. 62. 62. 59. 59. 53. 53. 70. 70. 60.
+ 60. 61. 61. 54. 54. 52. 52. 51. 51. 71. 71. 55. 55. 63. 63. 60. 60. 46.
+ 46. 73. 73. 71. 71. 67. 67. 59. 59. 10. 10. 63. 73. 46. 62. 72. 61. 51.
+ 60. 46.]</t>
+        </is>
+      </c>
+      <c r="T325" t="inlineStr">
+        <is>
+          <t>[[76.0924114 ]
+ [70.16407961]
+ [76.10436352]
+ [75.97050285]
+ [69.58482272]
+ [74.47537362]
+ [71.4088506 ]
+ [63.31399357]
+ [71.99213544]
+ [70.83677378]
+ [65.37749448]
+ [59.37392043]
+ [60.63539927]
+ [63.19146582]
+ [64.37750582]
+ [62.04223558]
+ [67.96263854]
+ [63.52042322]
+ [61.31674672]
+ [65.4998003 ]
+ [49.78320939]
+ [50.40229069]
+ [42.8810204 ]
+ [35.87423181]
+ [38.04163568]
+ [34.07611788]
+ [33.65410992]
+ [67.24513388]
+ [71.85135818]
+ [65.6180343 ]
+ [67.83975975]
+ [61.88095386]
+ [60.45144706]
+ [65.98082867]
+ [62.21293602]
+ [59.40332797]
+ [62.53550281]
+ [60.7144087 ]
+ [57.00630325]
+ [72.76566637]
+ [72.10021032]
+ [71.75966922]
+ [70.49693972]
+ [71.04091391]
+ [70.97749015]
+ [62.15701138]
+ [60.1765231 ]
+ [63.33683704]
+ [62.92034115]
+ [57.12574819]
+ [54.27208413]
+ [68.89836246]
+ [68.40854413]
+ [58.54245523]
+ [57.18150549]
+ [62.54203133]
+ [58.07624162]
+ [57.38038576]
+ [54.05374471]
+ [56.43405219]
+ [50.29729018]
+ [48.44406145]
+ [47.13566197]
+ [68.95793288]
+ [72.89783232]
+ [52.49287048]
+ [52.25493944]
+ [56.93865807]
+ [59.12739889]
+ [65.33803389]
+ [60.96036489]
+ [48.07710058]
+ [45.04821804]
+ [75.87313004]
+ [71.81064598]
+ [70.37964948]
+ [67.48458325]
+ [67.38405949]
+ [68.09308232]
+ [55.04820936]
+ [58.76220483]
+ [ 7.09610423]
+ [ 7.43274323]
+ [61.86180046]
+ [73.65069588]
+ [42.97332233]
+ [61.6592899 ]
+ [71.93983139]
+ [59.57075878]
+ [50.63288981]
+ [62.2736881 ]
+ [46.86428201]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>SG_NONE_PLSR</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>0.9850</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>0.9782</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>0.9703</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>0.9569</t>
+        </is>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>4.8160</t>
+        </is>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>2.0672</t>
+        </is>
+      </c>
+      <c r="M326" t="inlineStr">
+        <is>
+          <t>0.4875</t>
+        </is>
+      </c>
+      <c r="N326" t="inlineStr">
+        <is>
+          <t>0.5345</t>
+        </is>
+      </c>
+      <c r="O326" t="inlineStr">
+        <is>
+          <t>0.5351</t>
+        </is>
+      </c>
+      <c r="P326" t="inlineStr">
+        <is>
+          <t>{'method': ['sg']}</t>
+        </is>
+      </c>
+      <c r="Q326" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R326" t="inlineStr">
+        <is>
+          <t>n_comp=11</t>
+        </is>
+      </c>
+      <c r="S326" t="inlineStr">
+        <is>
+          <t>[72. 72. 73. 73. 72. 72. 70. 70. 70. 70. 64. 64. 63. 63. 64. 64. 62. 62.
+ 62. 62. 43. 43. 46. 34. 34. 31. 31. 72. 72. 66. 66. 62. 62. 62. 62. 62.
+ 62. 58. 58. 74. 74. 72. 72. 72. 72. 62. 62. 59. 59. 53. 53. 70. 70. 60.
+ 60. 61. 61. 54. 54. 52. 52. 51. 51. 71. 71. 55. 55. 63. 63. 60. 60. 46.
+ 46. 73. 73. 71. 71. 67. 67. 59. 59. 10. 10. 63. 73. 46. 62. 72. 61. 51.
+ 60. 46.]</t>
+        </is>
+      </c>
+      <c r="T326" t="inlineStr">
+        <is>
+          <t>[[74.33860593]
+ [70.7716612 ]
+ [77.59587159]
+ [74.04490225]
+ [71.1815919 ]
+ [74.55135854]
+ [68.20224293]
+ [65.89532833]
+ [70.6481016 ]
+ [72.84180314]
+ [64.25345188]
+ [59.80029074]
+ [59.29678939]
+ [61.20221248]
+ [66.76652281]
+ [61.80111577]
+ [64.99964632]
+ [64.12764856]
+ [61.60118623]
+ [66.40298406]
+ [48.6583581 ]
+ [50.088662  ]
+ [41.24764256]
+ [36.03548795]
+ [39.3893175 ]
+ [33.41661986]
+ [33.01179056]
+ [70.91083698]
+ [72.69520055]
+ [64.50898606]
+ [67.71956965]
+ [61.5758864 ]
+ [59.3241445 ]
+ [64.07191684]
+ [63.05253603]
+ [59.72255619]
+ [63.08313032]
+ [60.12712094]
+ [57.80103605]
+ [73.77750032]
+ [73.34006788]
+ [72.79327999]
+ [72.44888288]
+ [71.37428911]
+ [70.4142585 ]
+ [60.68414429]
+ [59.66305195]
+ [60.33189484]
+ [60.52401282]
+ [57.26257017]
+ [55.6112904 ]
+ [70.57182919]
+ [68.12908391]
+ [59.26656828]
+ [57.62764097]
+ [59.47117054]
+ [60.35836688]
+ [58.82825331]
+ [54.20272264]
+ [57.33340128]
+ [51.49215312]
+ [47.941485  ]
+ [47.07235626]
+ [71.58573576]
+ [72.5493717 ]
+ [53.04747376]
+ [54.34263724]
+ [58.96944841]
+ [57.66183746]
+ [65.06954288]
+ [62.18034867]
+ [48.54194744]
+ [46.16662481]
+ [72.9040263 ]
+ [71.2143018 ]
+ [68.71876018]
+ [68.02740555]
+ [67.58648194]
+ [67.20571385]
+ [55.17681859]
+ [58.07450824]
+ [ 9.45936251]
+ [ 9.35840287]
+ [60.57841723]
+ [73.40348327]
+ [41.44469905]
+ [61.36511594]
+ [72.20161602]
+ [59.63751129]
+ [50.47275306]
+ [63.07675081]
+ [48.6959491 ]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>NONE_NONE_PLSR</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>0.9883</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>0.9795</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>0.9768</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>0.9595</t>
+        </is>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>4.9662</t>
+        </is>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>1.9877</t>
+        </is>
+      </c>
+      <c r="M327" t="inlineStr">
+        <is>
+          <t>2.5990</t>
+        </is>
+      </c>
+      <c r="N327" t="inlineStr">
+        <is>
+          <t>2.6005</t>
+        </is>
+      </c>
+      <c r="O327" t="inlineStr">
+        <is>
+          <t>2.6012</t>
+        </is>
+      </c>
+      <c r="P327" t="inlineStr">
+        <is>
+          <t>{'method': ['none']}</t>
+        </is>
+      </c>
+      <c r="Q327" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R327" t="inlineStr">
+        <is>
+          <t>n_comp=11</t>
+        </is>
+      </c>
+      <c r="S327" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T327" t="inlineStr">
+        <is>
+          <t>[73.11444253578921,71.50685271022436,75.29453723888719,71.547702335417,69.72729998943424,73.85846472811984,69.69871592704561,64.85962128777518,72.50846267867331,70.16506094614937,63.61189601415906,59.59306531678729,58.36814568370379,61.34525098617084,65.11645752080868,61.412476857076044,68.9765871982926,64.69973349441744,60.60877248697068,64.88503838733212,48.87569315389469,48.04484509497378,43.05257067811696,34.0864901102221,37.295921146177555,34.60501904048074,33.862055161495235,67.13263440396665,72.14934217990972,63.89600460439593,66.16127293310717,60.193513829605855,58.722042763570585,66.1664232902972,61.79940165803026,59.84909382637078,60.19598912518878,59.01810609405472,56.99538749805991,72.65361154042228,72.41863658698374,73.18698236060116,70.59409693061838,71.4971201811159,71.74473736289187,61.671620453177546,60.821111371143886,61.96601986452706,64.6060023418162,53.09165044749233,55.39963971759191,68.80324439965236,70.11260577621289,60.644697384272035,59.04482003968289,62.46856859607699,58.5315668689007,59.66907426234435,53.206376191501874,55.67167475620384,49.479617763178645,48.82162644377193,48.47998078127216,68.70835146552344,72.8971925040551,53.27388936500958,53.87086912584756,57.48855203609541,59.512064993129435,61.88473400113535,62.276292172651004,49.38761033016953,44.49214267303818,73.41162723388621,72.5649171027765,72.48698674118502,69.0825980973956,66.95028081294534,67.72736663751141,56.49092873032699,57.509055135231286,9.801799726467706,8.500137315482675,61.71746731201625,72.84288416525725,42.96927222751101,60.89872380233624,72.20586549582922,59.92780850099983,50.37961806442827,62.037454880212216,47.72051898125942]</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>NONE_PCA_PLSR</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>0.9841</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>0.9825</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>0.9685</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>0.9653</t>
+        </is>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>5.3704</t>
+        </is>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>1.8311</t>
+        </is>
+      </c>
+      <c r="M328" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="N328" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="O328" t="inlineStr">
+        <is>
+          <t>0.1127</t>
+        </is>
+      </c>
+      <c r="P328" t="inlineStr">
+        <is>
+          <t>{'method': ['none']}</t>
+        </is>
+      </c>
+      <c r="Q328" t="inlineStr">
+        <is>
+          <t>[{'n_components': 56}]</t>
+        </is>
+      </c>
+      <c r="R328" t="inlineStr">
+        <is>
+          <t>n_comp=11</t>
+        </is>
+      </c>
+      <c r="S328" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T328" t="inlineStr">
+        <is>
+          <t>[72.55695740774337,72.99173114080766,74.77057139811947,71.74132022429194,70.54693590566113,74.23181353903423,69.11411636879579,70.19503186170026,71.36941707323246,70.2911619866533,65.89661388077714,60.154768701225464,60.841096558645226,60.5882245318684,65.62561738714481,62.7571863554291,66.31663903106553,64.87838288453932,61.09737445883113,66.70381366922093,48.86419324690361,49.235307968676395,43.36904876268779,35.85860146347434,37.34654450312866,32.74578832969033,32.39897852617761,69.81904168909743,70.85504936734709,63.1195099412809,66.54797638889701,61.62687522777251,59.6689659635018,63.56336465601039,62.1299326484099,60.384928505506196,63.470789868956686,59.62346143841123,57.49230308519853,73.90314716160216,72.81174052786459,72.8149536400277,72.03130802936799,68.66082384779594,71.56702206045202,61.859494485442895,59.606326442000395,63.388515415323766,62.08309284634793,54.22178104328803,54.61169626736157,70.10271969445208,70.90363790628294,61.744439553914475,60.22536838963232,59.788297781865104,59.009344303168156,58.958857290196626,54.77291173003567,55.01954236470121,50.730876873037175,49.49302318442592,48.78144973403006,69.35197157416547,72.43148812155081,53.835504651544895,55.640200836965654,59.27782538561528,57.67201918478061,64.40377748749522,63.75246268679035,49.10587972921258,46.52945657350405,72.38084050844893,73.28783492684768,71.28827416567567,70.11221582497066,66.15222315491981,68.35954924508164,56.510391370174396,58.25678411165993,9.570459054180091,9.079612992907805,61.070517435268854,72.42929754485084,41.107906697332425,61.684131262708775,72.50242904648097,59.15458646548868,50.08864502507225,64.10313045988681,49.69118961574847]</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>NONE_CARS_PLSR</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>CARS</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>0.9833</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>0.9797</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>0.9668</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>0.9598</t>
+        </is>
+      </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>4.9891</t>
+        </is>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>2.0481</t>
+        </is>
+      </c>
+      <c r="M329" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="N329" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="O329" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="P329" t="inlineStr">
+        <is>
+          <t>{'method': ['none']}</t>
+        </is>
+      </c>
+      <c r="Q329" t="inlineStr">
+        <is>
+          <t>[{'index': [3, 5, 8, 14, 26, 31, 41, 43, 48, 49, 53, 59, 65, 72, 80, 81, 85, 87, 90, 110, 111, 116, 120, 122, 126, 127, 128, 153, 158, 175, 180, 184, 197, 198, 202, 205, 206, 214, 227, 240, 241, 255]}]</t>
+        </is>
+      </c>
+      <c r="R329" t="inlineStr">
+        <is>
+          <t>n_comp=11</t>
+        </is>
+      </c>
+      <c r="S329" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T329" t="inlineStr">
+        <is>
+          <t>[72.9007954412523,71.8640882571419,76.00953321344454,72.81510592330358,70.5956330366584,74.53206384531471,69.00741324770964,69.85738174551892,72.93525894705945,70.8101529282023,65.41662625488763,59.71486117794751,59.54872661731131,61.29959862082639,62.7351698079392,61.75810130375995,66.06978132491007,65.4318034123817,61.95590384089569,66.45081802179126,47.568470115252396,47.68332415148352,42.306807268228894,35.08099671717582,36.61275081313081,32.395461805341455,31.3987789028693,70.11288194126618,71.51055769931162,63.23727883985854,65.41381981844486,61.67233356807295,59.26685923381402,62.62790082834207,64.30296480547828,60.33296769858395,64.08621930014183,59.419178026779356,58.331225970082855,72.33897820998212,69.48640157540012,70.67751786072145,71.08160932234875,71.22914237247298,70.37657410841408,61.13459595909198,61.775076198321216,62.71145935005044,62.6233321102289,56.07681954097313,54.282523659903454,66.0457104319376,70.68637930457251,60.47039650503152,58.46584542915878,59.24154638363442,57.55515899309199,59.37093248637313,54.34319377781495,55.86024479634337,52.27938946283598,50.26121837621197,49.193371972985176,69.2251128372699,72.50626227506976,51.65204722732089,54.04302622844375,59.23129088649514,59.34635631694001,65.28198219902082,64.72785813716325,49.84930995493101,47.85571411780719,72.19039790146984,72.21068540437393,68.51591067583439,69.31779253307727,65.51318505200075,68.3287161717179,55.4888120091715,56.37202314990253,9.578281673710379,11.421372686234449,61.30018410680306,72.34082674323638,40.83006261169717,61.25282756549167,71.80874377915603,59.218330897847935,51.53024838299544,63.65295296310975,49.809698085705605]</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>NONE_SPA_PLSR</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>SPA</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>0.9835</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>0.9773</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>0.9672</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>0.9551</t>
+        </is>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>4.7168</t>
+        </is>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>2.1449</t>
+        </is>
+      </c>
+      <c r="M330" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="N330" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="O330" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="P330" t="inlineStr">
+        <is>
+          <t>{'method': ['none']}</t>
+        </is>
+      </c>
+      <c r="Q330" t="inlineStr">
+        <is>
+          <t>[{'index': [219, 6, 195, 134, 46, 3, 182, 158, 179, 254, 191, 188, 161, 84, 165, 2, 166, 171, 176, 193, 167, 174, 172, 196, 163, 177, 198, 175, 189, 159, 242, 180, 168]}]</t>
+        </is>
+      </c>
+      <c r="R330" t="inlineStr">
+        <is>
+          <t>n_comp=11</t>
+        </is>
+      </c>
+      <c r="S330" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T330" t="inlineStr">
+        <is>
+          <t>[71.65435834810953,72.4356545683999,70.4405547566507,70.031651376544,69.6838408838456,73.32381465452762,70.45477589104874,70.29318561382199,73.68903511645954,71.94821420485552,65.01039379884894,59.461372298595265,59.97861741701845,61.74950378817979,65.43992434270501,62.84802715093297,69.49325111665787,65.02679165201316,60.581440758862705,66.70033587675192,48.06431030147674,48.65205052406225,42.8776557318568,36.406036768190376,38.066820360815655,33.51265287159011,31.722842797325356,67.57781883841714,71.3549442015322,62.19826257820137,66.24162172445621,60.55970009996145,60.357910174454254,64.81704885188928,63.175370809392675,58.8902029399502,62.8239251684704,61.17356507644914,57.655546338603195,70.45257253199325,71.65823987213193,73.46940739412007,71.2618683313513,67.97993360379985,72.00370116439328,59.667426189218965,58.10656472312207,61.38086508733009,62.8535605369651,52.809989307249765,55.54761666166934,71.46481610365174,71.67383518714452,58.79056274095303,59.36747338131861,58.871838420077545,58.714083377445576,58.126503988984275,53.45538771413779,55.705671686077146,51.828198440925455,49.83877836920905,49.80496884976562,68.63752621175266,72.03120095810682,52.28323413150643,55.31970095577009,57.35913705373716,58.57400146099503,63.04489390526852,63.53189291129599,49.45735844138447,46.35718747929049,71.76816073544374,73.89473316421481,70.5754897886548,70.03534225060554,67.16029085219265,67.84448022414746,55.205096024422964,56.88229080376912,9.668782525518381,8.249608907063774,61.77334209831699,71.22388482190166,40.91840398373908,61.70464686098145,72.50840650901293,59.194042823618105,50.633735570052394,63.73616927829652,48.94365025604237]</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>D1_NONE_PLSR</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>0.9859</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>0.9799</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>0.9720</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>0.9601</t>
+        </is>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>5.0087</t>
+        </is>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>1.9942</t>
+        </is>
+      </c>
+      <c r="M331" t="inlineStr">
+        <is>
+          <t>2.6963</t>
+        </is>
+      </c>
+      <c r="N331" t="inlineStr">
+        <is>
+          <t>2.7536</t>
+        </is>
+      </c>
+      <c r="O331" t="inlineStr">
+        <is>
+          <t>2.7539</t>
+        </is>
+      </c>
+      <c r="P331" t="inlineStr">
+        <is>
+          <t>{'method': ['d1']}</t>
+        </is>
+      </c>
+      <c r="Q331" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R331" t="inlineStr">
+        <is>
+          <t>n_comp=11</t>
+        </is>
+      </c>
+      <c r="S331" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T331" t="inlineStr">
+        <is>
+          <t>[74.4989359035886,71.78702061658262,74.39767658664539,72.2328453738165,73.18569816738336,72.64716044015854,69.94420800210256,67.94741408354425,74.80191032158105,72.35806451510379,65.32604358169533,60.38504425571393,59.4425396409866,61.54886923416557,66.56053682521888,61.28386802637689,65.77141676522041,61.52764088663719,61.7474276164012,67.04117533160726,48.87421293515717,49.87348552371374,39.822482538474404,36.371423020188146,39.6413678358511,34.186437745158756,32.25633407263576,69.31146918879367,71.65615379141376,65.85381140267025,66.50943547809064,60.3201092538883,59.896362631044624,65.08496417584806,62.77723066005464,58.011207764167565,62.24938276284346,59.03526077117429,57.33650630920424,73.7358096741705,72.97496637548308,71.69372162133801,70.2549709835988,69.70381984547949,72.1324500046574,59.56475350274031,61.18075559705054,61.783346524536825,60.607995460938355,55.23199624617216,55.248730646926816,69.61866002233089,68.32692091813341,57.8485242621774,57.06155195452375,60.6291338499836,60.903581772315626,57.708549177351046,55.412907608740944,55.80291034733266,50.22706319013459,48.40524460841391,49.11073925866491,71.0905843432931,73.85331369793501,53.50036605172212,53.9795354330198,58.43801069004433,59.21936545192269,64.27446867456476,63.19238940837211,48.21207425625265,44.83284705874745,74.06378335835375,71.11104143576954,69.54447327130748,68.56317347006353,69.24278132109337,67.33216345099818,56.193476024248575,58.19323634229112,7.255801028002679,10.89134972613141,61.42237233777433,72.54308359562664,42.46380154995905,61.32052762878779,71.33254400339503,59.7552760109591,50.46471138670191,62.23207679739911,47.135941083877086]</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>D2_NONE_PLSR</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>0.9837</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>0.9703</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>0.9677</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>0.9416</t>
+        </is>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>4.1368</t>
+        </is>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>2.2408</t>
+        </is>
+      </c>
+      <c r="M332" t="inlineStr">
+        <is>
+          <t>0.5540</t>
+        </is>
+      </c>
+      <c r="N332" t="inlineStr">
+        <is>
+          <t>0.6212</t>
+        </is>
+      </c>
+      <c r="O332" t="inlineStr">
+        <is>
+          <t>0.6214</t>
+        </is>
+      </c>
+      <c r="P332" t="inlineStr">
+        <is>
+          <t>{'method': ['d2']}</t>
+        </is>
+      </c>
+      <c r="Q332" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R332" t="inlineStr">
+        <is>
+          <t>n_comp=11</t>
+        </is>
+      </c>
+      <c r="S332" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T332" t="inlineStr">
+        <is>
+          <t>[76.33827049683711,69.9161813111663,73.55972097478518,72.07541585440188,67.17817951238963,73.53665691861734,66.54291880728724,63.03723453742555,69.20188839530348,73.07609888349704,65.0303875974021,62.589113839675534,61.70087694379429,63.228779598353164,68.42895800496167,60.785217669826935,70.56158069987309,59.1438279380886,62.057138831723535,65.99738232765053,49.99926085858736,53.07803185896777,41.45380418587165,31.153474852988882,36.1834679824287,34.13806027846441,32.396612091057825,69.40400105492164,70.44863631331876,66.92634334737039,65.960998804942,61.62992692362636,62.54806020198699,61.50605152134569,60.98478925717507,59.199099408648145,60.38297899884111,60.85008605620644,56.48397293484648,76.70501553581681,73.3595799380009,69.97574808469578,73.89829824890634,69.90736512715178,69.82538697905146,60.16957203815464,62.31559072814393,58.263088937484625,61.573649932227354,56.49936850071462,61.18861631578696,72.05634358031983,75.78609946508142,57.391583159583156,60.26890672126907,63.161207033269676,61.18829594318302,58.50454607620392,52.21327841734363,52.23055994124794,49.595729080360975,48.71477450953192,52.303214972305,69.02155675525484,71.68203863964243,55.149872280517194,55.23196104823106,56.48163926114832,60.85324034083974,61.046230701862534,59.05955257439578,45.13746667819255,45.44635054422857,75.30695335785622,72.92287305423231,68.50070370314212,69.64611664666322,71.60745522706935,69.90308748445283,53.89636003733456,58.87329563262096,5.830474228521773,12.048734368041139,62.11698770031933,72.43391766268685,42.727125693895985,62.020070699438214,72.17044953631965,60.90043292890789,50.58955393646576,61.07547853381064,47.925794686692015]</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>MSC_D1_SG_NONE_PLSR</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>MSC+D1+SG</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>0.9828</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>0.9712</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>0.9658</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>0.9433</t>
+        </is>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>4.1981</t>
+        </is>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>2.4583</t>
+        </is>
+      </c>
+      <c r="M333" t="inlineStr">
+        <is>
+          <t>2.7136</t>
+        </is>
+      </c>
+      <c r="N333" t="inlineStr">
+        <is>
+          <t>2.9973</t>
+        </is>
+      </c>
+      <c r="O333" t="inlineStr">
+        <is>
+          <t>2.9971</t>
+        </is>
+      </c>
+      <c r="P333" t="inlineStr">
+        <is>
+          <t>{'method': ['msc', 'd1', 'sg']}</t>
+        </is>
+      </c>
+      <c r="Q333" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R333" t="inlineStr">
+        <is>
+          <t>n_comp=11</t>
+        </is>
+      </c>
+      <c r="S333" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T333" t="inlineStr">
+        <is>
+          <t>[70.30484825071285,69.1134550003642,76.56208045538236,73.80743689449594,70.06045687423453,75.65362876926149,70.9752013130841,66.27162343972574,71.40807668338887,70.92098115359497,66.04230879361396,57.94302348650042,57.94055610548634,58.02459854403423,64.47331400768391,56.95196888017451,66.92164453768255,65.1380588770623,59.133883100337066,66.12353817733931,47.9682554210887,49.022852305060404,41.920224007528674,32.74495330802425,37.47402591878261,35.80893370610013,36.295525643097186,69.31789197655284,69.95503603870145,65.45950056410241,65.89204389675926,58.78790919687867,58.67898092620763,65.62681037916622,63.253802108004464,60.55049127006789,62.440709947125264,58.57953048401856,58.33395695110823,75.6874819946928,74.86323676494064,73.10907707571403,74.90130510362268,70.96194018131261,71.50102405310545,58.33803006202296,60.65507295138212,59.658523293947134,63.018487512814964,54.84135471282485,56.33475329814736,67.97188797064028,68.87490479310489,59.73703722821794,56.820046968102425,59.72614844541463,59.53722948063662,60.725699958384446,55.71832870033031,57.1170475641593,54.56218239934814,48.110198034064766,47.73758791732537,70.2596188745688,72.13296307526733,53.81438424974726,57.764129075107995,58.528475798721566,58.229435716799514,63.579997021603916,62.06794828614629,50.41992914284882,46.23988975306393,71.8024836713695,70.27428854947199,68.5513099954503,65.52253944910079,67.99389050136752,68.93275168320848,57.299808626200445,57.995100508629484,10.08028131621058,10.11266145448613,60.0673167281511,73.7551178362418,42.25737675727005,60.58596509433946,72.31967128132902,59.50775956544545,50.19203406859434,62.55217743100353,48.75738764533202]</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>SNV_D1_SG_NONE_PLSR</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>SNV+D1+SG</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>0.9830</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>0.9732</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>0.9663</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>0.9470</t>
+        </is>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>4.3454</t>
+        </is>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>2.3679</t>
+        </is>
+      </c>
+      <c r="M334" t="inlineStr">
+        <is>
+          <t>2.6569</t>
+        </is>
+      </c>
+      <c r="N334" t="inlineStr">
+        <is>
+          <t>2.8703</t>
+        </is>
+      </c>
+      <c r="O334" t="inlineStr">
+        <is>
+          <t>2.8702</t>
+        </is>
+      </c>
+      <c r="P334" t="inlineStr">
+        <is>
+          <t>{'method': ['snv', 'd1', 'sg']}</t>
+        </is>
+      </c>
+      <c r="Q334" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R334" t="inlineStr">
+        <is>
+          <t>n_comp=11</t>
+        </is>
+      </c>
+      <c r="S334" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T334" t="inlineStr">
+        <is>
+          <t>[70.9172957751072,68.58307780529276,76.26657660023659,73.5320032759838,69.69787342984897,75.0204454787491,70.45673654440522,67.42333804013705,71.0337546039044,71.00698740018566,65.31672702761514,57.449695130143596,58.706915727777535,58.746065175728305,64.39306204571706,57.445219816145894,66.42593805392772,64.7578437334201,59.80493874108675,66.28333158275724,47.87827394516759,48.770937035423714,41.78596633657143,33.06010746212162,37.60264129231598,34.603160321233275,35.27424327173451,69.70828542430516,70.03134280972029,65.68023941822284,65.42584746947206,58.89482755456954,58.658328699176224,65.67443237599596,63.939962838841865,60.917226493269816,61.98012360532865,58.800212023381036,58.39138337925606,75.04654484281157,74.92189573867651,72.9663059886728,75.06235679769784,70.67945588898469,71.69304903243136,58.64873971447671,60.823882453685876,60.14103635899094,62.608900622100336,55.0757721788616,56.07076094484934,67.9253942748856,68.42882108005533,60.15243737099506,56.912398441779054,60.273466436008455,60.49170270331057,60.92625399975948,56.16001917970801,56.812861727705496,53.50913469894144,47.69450617248262,47.22387346941382,69.97984590310584,71.98483234615581,53.54010068630394,57.757401040209274,58.981862214313146,58.21051790195852,64.07720752810974,62.912505934788776,50.458096471689764,46.34952277456104,71.27577870559742,69.91988974685394,68.31576186999621,65.56802341555007,68.20419468420306,69.19974438609394,57.62171987174608,58.51920258889862,9.832369577302359,10.838368567476024,60.16814348866034,73.54681550655206,42.01475563098445,60.51126867392673,72.22043341807495,60.1209478786411,49.68041462114836,62.814660047337924,48.57442718281661]</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>D1_SG_NONE_PLSR</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>D1+SG</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>0.9841</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>0.9797</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>0.9685</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>0.9599</t>
+        </is>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>4.9937</t>
+        </is>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>2.0146</t>
+        </is>
+      </c>
+      <c r="M335" t="inlineStr">
+        <is>
+          <t>2.6690</t>
+        </is>
+      </c>
+      <c r="N335" t="inlineStr">
+        <is>
+          <t>2.7743</t>
+        </is>
+      </c>
+      <c r="O335" t="inlineStr">
+        <is>
+          <t>2.7742</t>
+        </is>
+      </c>
+      <c r="P335" t="inlineStr">
+        <is>
+          <t>{'method': ['d1', 'sg']}</t>
+        </is>
+      </c>
+      <c r="Q335" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R335" t="inlineStr">
+        <is>
+          <t>n_comp=11</t>
+        </is>
+      </c>
+      <c r="S335" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T335" t="inlineStr">
+        <is>
+          <t>[72.58031860645023,68.91484283110847,75.19243985600468,73.68677463142983,69.9198610739642,74.76245612100335,70.3199170444664,66.49117477031128,70.61196179912395,71.36676535725694,65.90567219393499,59.71450018097693,60.077386645987644,61.3285433675742,64.8716812677638,60.39256000706307,65.2345928006654,64.33494994340778,61.38523760212408,66.74559887567331,48.579655157939555,48.75894448298939,42.03491543325641,36.32178267135731,39.74567292025601,34.03474479506585,33.35773266682615,70.77185882776644,72.03581985683934,65.1357905817763,65.90106933655106,59.635182509702425,59.223223360202695,65.11374819783293,63.122976854749524,60.14172979278702,61.46078476964701,59.00165826257047,57.94137722227215,74.28783355548292,74.81498760855246,71.80207002304967,73.71248423692849,70.66165468883213,70.95053383088506,59.30557100801055,59.81263109583964,60.17411081703505,60.56564479923333,54.38277446597875,54.91153163753361,68.5615578449876,68.2943336718606,60.6337250005517,56.55595985915513,59.17049983640511,60.19770487862645,59.7207008266075,54.247367063138356,56.55519824723763,52.83881227317893,49.76580168146422,48.48970146773762,72.28716299512097,74.32969859798635,52.427529403220916,55.55225426981974,59.56801202142424,57.97516053258362,65.02607275431254,63.22776040409446,48.939013310103576,45.13685477600238,72.68225760740242,72.32376820063136,67.7809775486321,67.60237017782072,68.13363085223587,67.63196383833312,56.10405686341056,58.50033879728871,8.869753655718242,10.114071852003754,60.84681022679478,73.06639121267158,41.96851272995227,61.02036981790625,71.90298883637297,59.31293606195448,50.740649138875725,63.191155683130994,48.11259009006589]</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>D2_SG_NONE_PLSR</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>D2+SG</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>0.9814</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>0.9753</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>0.9631</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>0.9513</t>
+        </is>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>4.5315</t>
+        </is>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>2.2224</t>
+        </is>
+      </c>
+      <c r="M336" t="inlineStr">
+        <is>
+          <t>2.7046</t>
+        </is>
+      </c>
+      <c r="N336" t="inlineStr">
+        <is>
+          <t>2.8101</t>
+        </is>
+      </c>
+      <c r="O336" t="inlineStr">
+        <is>
+          <t>2.8102</t>
+        </is>
+      </c>
+      <c r="P336" t="inlineStr">
+        <is>
+          <t>{'method': ['d2', 'sg']}</t>
+        </is>
+      </c>
+      <c r="Q336" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R336" t="inlineStr">
+        <is>
+          <t>n_comp=11</t>
+        </is>
+      </c>
+      <c r="S336" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T336" t="inlineStr">
+        <is>
+          <t>[71.5377430469702,66.2937789272948,73.6709335439935,71.88187743074472,70.99263316078368,74.06646305355338,69.32653522614281,65.17701049801515,71.06073211502861,71.36474792799609,65.39414338595058,57.73494482749483,59.0074844629936,62.519664395920145,66.25652504026428,58.99312541197941,66.75568855543501,62.43521461802853,62.72168157808515,68.03870040060724,49.377589147069976,49.587196536511264,42.12426004114149,32.78522030279226,38.16279754100335,33.75486675386402,34.63878790183338,70.25372862989146,69.19048181989272,64.91068766988487,64.3295861680024,58.75771919027276,60.20080803260773,63.3405356767669,62.19866755932264,59.22298028661655,60.895619245272975,58.976860069832895,56.48280822872134,77.29333037223479,75.7894199684435,70.24629810477067,74.32892289674427,68.34096791290882,72.36246345244354,58.801953692145005,60.355385115773146,58.82361989786862,61.748581458663864,56.76991457958314,56.81300937464702,70.09020347640718,71.50722301259889,59.02842885931258,54.66731019191637,61.671865708007594,63.12595281899231,58.62903594625388,52.872433691334415,55.666854524323476,51.86965555226563,50.19972010271228,49.768510654318334,71.12419698478512,72.25727114765024,53.51901627985245,56.41852155842967,60.10728160562358,59.898305795649506,63.977046204974556,62.14750888851947,49.61694849134553,43.342932971649155,72.33750687985881,71.6299320000933,68.44153321845593,66.592505217917,69.7832930679811,69.6794817948521,56.39090314429929,58.69426616123813,8.54708061826122,10.470230756215301,61.484740829962035,72.403944721659,42.01489023479487,61.039760026323904,72.15683284815559,60.61941581303199,50.69968525539851,62.663462507932465,47.92450271976599]</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>DWT_SG_NONE_PLSR</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>DWT+SG</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>0.9857</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>0.9817</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>0.9717</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>0.9638</t>
+        </is>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>5.2532</t>
+        </is>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>1.8344</t>
+        </is>
+      </c>
+      <c r="M337" t="inlineStr">
+        <is>
+          <t>2.6604</t>
+        </is>
+      </c>
+      <c r="N337" t="inlineStr">
+        <is>
+          <t>2.7208</t>
+        </is>
+      </c>
+      <c r="O337" t="inlineStr">
+        <is>
+          <t>2.7209</t>
+        </is>
+      </c>
+      <c r="P337" t="inlineStr">
+        <is>
+          <t>{'method': ['dwt', 'sg']}</t>
+        </is>
+      </c>
+      <c r="Q337" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R337" t="inlineStr">
+        <is>
+          <t>n_comp=11</t>
+        </is>
+      </c>
+      <c r="S337" t="inlineStr">
+        <is>
+          <t>[72.0,72.0,73.0,73.0,72.0,72.0,70.0,70.0,70.0,70.0,64.0,64.0,63.0,63.0,64.0,64.0,62.0,62.0,62.0,62.0,43.0,43.0,46.0,34.0,34.0,31.0,31.0,72.0,72.0,66.0,66.0,62.0,62.0,62.0,62.0,62.0,62.0,58.0,58.0,74.0,74.0,72.0,72.0,72.0,72.0,62.0,62.0,59.0,59.0,53.0,53.0,70.0,70.0,60.0,60.0,61.0,61.0,54.0,54.0,52.0,52.0,51.0,51.0,71.0,71.0,55.0,55.0,63.0,63.0,60.0,60.0,46.0,46.0,73.0,73.0,71.0,71.0,67.0,67.0,59.0,59.0,10.0,10.0,63.0,73.0,46.0,62.0,72.0,61.0,51.0,60.0,46.0]</t>
+        </is>
+      </c>
+      <c r="T337" t="inlineStr">
+        <is>
+          <t>[72.18014252574913,71.63767499205446,75.73304971791343,73.44176121342062,69.41603357587911,74.58037837452072,70.34090650973053,69.60556326648225,70.14527950176176,70.96889595758843,65.84734307731067,59.994241629496926,59.534817668814384,60.667855599794244,64.8823275078087,60.665462179691666,67.04477385577307,64.65776273287251,61.003145872403735,66.06609211072148,48.78426801769448,48.4261989543275,43.146781789292085,35.551479869446894,37.25674477103723,33.311413061443886,33.72373063509315,69.80735903621823,70.53971875718679,63.5276111295567,66.16670357223893,61.464885590112,59.31825609386252,63.914140799042094,63.12961919310748,60.25796265365169,62.359676024884436,59.41505233364229,57.00219281218185,73.95742628529038,73.36166557237091,71.87848401866724,71.06113966326677,71.11256221583582,72.0258138439631,60.63736383847106,58.76063187442925,60.55566379071957,61.74585033014936,53.937448173812435,53.86175552527072,68.68624262924543,69.54915747417556,60.893553830993035,57.93325402005186,61.17015886727217,60.08629048471997,60.109506491900156,54.655391819231234,55.95959582107099,50.73461145535995,48.35120456838343,47.747592389414635,70.88803168103469,73.0999501267827,54.27574524345342,55.563674772301226,59.32000174568914,57.692013175399005,64.54801932492589,63.59278937420668,49.71232657598005,46.06388222030115,72.47152790589914,71.46796502481199,69.15907666797008,69.31140132924811,66.75859494253783,68.39159830645599,57.63536898460161,59.28362629663742,9.925798731761773,10.755005811285642,61.292054695836065,73.20724187735578,41.18296813700263,61.40423256731773,71.95413510804086,59.846363628362035,49.95171696965242,64.34175291972805,49.345290911180854]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
